--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dag1-Lama4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dag1-Lama4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.7655851344209</v>
+        <v>20.84555366666667</v>
       </c>
       <c r="H2">
-        <v>20.7655851344209</v>
+        <v>62.53666100000001</v>
       </c>
       <c r="I2">
-        <v>0.1685759019021687</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="J2">
-        <v>0.1685759019021687</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>99.6512484690769</v>
+        <v>100.3911106666667</v>
       </c>
       <c r="N2">
-        <v>99.6512484690769</v>
+        <v>301.173332</v>
       </c>
       <c r="O2">
-        <v>0.4589763349173888</v>
+        <v>0.459319947776371</v>
       </c>
       <c r="P2">
-        <v>0.4589763349173888</v>
+        <v>0.4593199477763709</v>
       </c>
       <c r="Q2">
-        <v>2069.316483835947</v>
+        <v>2092.708285058273</v>
       </c>
       <c r="R2">
-        <v>2069.316483835947</v>
+        <v>18834.37456552446</v>
       </c>
       <c r="S2">
-        <v>0.07737234961045068</v>
+        <v>0.07020042180279419</v>
       </c>
       <c r="T2">
-        <v>0.07737234961045068</v>
+        <v>0.07020042180279418</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.7655851344209</v>
+        <v>20.84555366666667</v>
       </c>
       <c r="H3">
-        <v>20.7655851344209</v>
+        <v>62.53666100000001</v>
       </c>
       <c r="I3">
-        <v>0.1685759019021687</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="J3">
-        <v>0.1685759019021687</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>114.722606175649</v>
+        <v>114.9276506666667</v>
       </c>
       <c r="N3">
-        <v>114.722606175649</v>
+        <v>344.782952</v>
       </c>
       <c r="O3">
-        <v>0.5283923896950464</v>
+        <v>0.5258290515138406</v>
       </c>
       <c r="P3">
-        <v>0.5283923896950464</v>
+        <v>0.5258290515138406</v>
       </c>
       <c r="Q3">
-        <v>2382.28204538308</v>
+        <v>2395.73050975592</v>
       </c>
       <c r="R3">
-        <v>2382.28204538308</v>
+        <v>21561.57458780328</v>
       </c>
       <c r="S3">
-        <v>0.08907422365108465</v>
+        <v>0.08036537797049223</v>
       </c>
       <c r="T3">
-        <v>0.08907422365108465</v>
+        <v>0.08036537797049223</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.7655851344209</v>
+        <v>20.84555366666667</v>
       </c>
       <c r="H4">
-        <v>20.7655851344209</v>
+        <v>62.53666100000001</v>
       </c>
       <c r="I4">
-        <v>0.1685759019021687</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="J4">
-        <v>0.1685759019021687</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.74245590974558</v>
+        <v>0.1681513333333333</v>
       </c>
       <c r="N4">
-        <v>2.74245590974558</v>
+        <v>0.504454</v>
       </c>
       <c r="O4">
-        <v>0.01263127538756484</v>
+        <v>0.0007693436314460319</v>
       </c>
       <c r="P4">
-        <v>0.01263127538756484</v>
+        <v>0.0007693436314460319</v>
       </c>
       <c r="Q4">
-        <v>56.94870167121756</v>
+        <v>3.505207643121556</v>
       </c>
       <c r="R4">
-        <v>56.94870167121756</v>
+        <v>31.546868788094</v>
       </c>
       <c r="S4">
-        <v>0.002129328640633409</v>
+        <v>0.0001175830653562206</v>
       </c>
       <c r="T4">
-        <v>0.002129328640633409</v>
+        <v>0.0001175830653562206</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.9580920906186</v>
+        <v>20.84555366666667</v>
       </c>
       <c r="H5">
-        <v>28.9580920906186</v>
+        <v>62.53666100000001</v>
       </c>
       <c r="I5">
-        <v>0.2350830212556987</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="J5">
-        <v>0.2350830212556987</v>
+        <v>0.1528355607951359</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>99.6512484690769</v>
+        <v>3.077752666666667</v>
       </c>
       <c r="N5">
-        <v>99.6512484690769</v>
+        <v>9.233257999999999</v>
       </c>
       <c r="O5">
-        <v>0.4589763349173888</v>
+        <v>0.01408165707834238</v>
       </c>
       <c r="P5">
-        <v>0.4589763349173888</v>
+        <v>0.01408165707834238</v>
       </c>
       <c r="Q5">
-        <v>2885.710030112645</v>
+        <v>64.15745838572646</v>
       </c>
       <c r="R5">
-        <v>2885.710030112645</v>
+        <v>577.417125471538</v>
       </c>
       <c r="S5">
-        <v>0.1078975434972472</v>
+        <v>0.002152177956493252</v>
       </c>
       <c r="T5">
-        <v>0.1078975434972472</v>
+        <v>0.002152177956493252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.9580920906186</v>
+        <v>29.057283</v>
       </c>
       <c r="H6">
-        <v>28.9580920906186</v>
+        <v>87.17184899999999</v>
       </c>
       <c r="I6">
-        <v>0.2350830212556987</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="J6">
-        <v>0.2350830212556987</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>114.722606175649</v>
+        <v>100.3911106666667</v>
       </c>
       <c r="N6">
-        <v>114.722606175649</v>
+        <v>301.173332</v>
       </c>
       <c r="O6">
-        <v>0.5283923896950464</v>
+        <v>0.459319947776371</v>
       </c>
       <c r="P6">
-        <v>0.5283923896950464</v>
+        <v>0.4593199477763709</v>
       </c>
       <c r="Q6">
-        <v>3322.147794510214</v>
+        <v>2917.092913325652</v>
       </c>
       <c r="R6">
-        <v>3322.147794510214</v>
+        <v>26253.83621993087</v>
       </c>
       <c r="S6">
-        <v>0.12421607937803</v>
+        <v>0.09785460994039129</v>
       </c>
       <c r="T6">
-        <v>0.12421607937803</v>
+        <v>0.09785460994039129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,122 +841,122 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.9580920906186</v>
+        <v>29.057283</v>
       </c>
       <c r="H7">
-        <v>28.9580920906186</v>
+        <v>87.17184899999999</v>
       </c>
       <c r="I7">
-        <v>0.2350830212556987</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="J7">
-        <v>0.2350830212556987</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.74245590974558</v>
+        <v>114.9276506666667</v>
       </c>
       <c r="N7">
-        <v>2.74245590974558</v>
+        <v>344.782952</v>
       </c>
       <c r="O7">
-        <v>0.01263127538756484</v>
+        <v>0.5258290515138406</v>
       </c>
       <c r="P7">
-        <v>0.01263127538756484</v>
+        <v>0.5258290515138406</v>
       </c>
       <c r="Q7">
-        <v>79.41629078887371</v>
+        <v>3339.485269946472</v>
       </c>
       <c r="R7">
-        <v>79.41629078887371</v>
+        <v>30055.36742951825</v>
       </c>
       <c r="S7">
-        <v>0.002969398380421489</v>
+        <v>0.1120238669805488</v>
       </c>
       <c r="T7">
-        <v>0.002969398380421489</v>
+        <v>0.1120238669805488</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.45870230389168</v>
+        <v>29.057283</v>
       </c>
       <c r="H8">
-        <v>7.45870230389168</v>
+        <v>87.17184899999999</v>
       </c>
       <c r="I8">
-        <v>0.0605500620261423</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="J8">
-        <v>0.0605500620261423</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>99.6512484690769</v>
+        <v>0.1681513333333333</v>
       </c>
       <c r="N8">
-        <v>99.6512484690769</v>
+        <v>0.504454</v>
       </c>
       <c r="O8">
-        <v>0.4589763349173888</v>
+        <v>0.0007693436314460319</v>
       </c>
       <c r="P8">
-        <v>0.4589763349173888</v>
+        <v>0.0007693436314460319</v>
       </c>
       <c r="Q8">
-        <v>743.2689965419862</v>
+        <v>4.886020879494</v>
       </c>
       <c r="R8">
-        <v>743.2689965419862</v>
+        <v>43.974187915446</v>
       </c>
       <c r="S8">
-        <v>0.02779104554777935</v>
+        <v>0.0001639027900480582</v>
       </c>
       <c r="T8">
-        <v>0.02779104554777935</v>
+        <v>0.0001639027900480583</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.45870230389168</v>
+        <v>29.057283</v>
       </c>
       <c r="H9">
-        <v>7.45870230389168</v>
+        <v>87.17184899999999</v>
       </c>
       <c r="I9">
-        <v>0.0605500620261423</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="J9">
-        <v>0.0605500620261423</v>
+        <v>0.2130423692986087</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>114.722606175649</v>
+        <v>3.077752666666667</v>
       </c>
       <c r="N9">
-        <v>114.722606175649</v>
+        <v>9.233257999999999</v>
       </c>
       <c r="O9">
-        <v>0.5283923896950464</v>
+        <v>0.01408165707834238</v>
       </c>
       <c r="P9">
-        <v>0.5283923896950464</v>
+        <v>0.01408165707834238</v>
       </c>
       <c r="Q9">
-        <v>855.6817669907712</v>
+        <v>89.43113023933799</v>
       </c>
       <c r="R9">
-        <v>855.6817669907712</v>
+        <v>804.8801721540419</v>
       </c>
       <c r="S9">
-        <v>0.03199419197017661</v>
+        <v>0.002999989587620584</v>
       </c>
       <c r="T9">
-        <v>0.03199419197017661</v>
+        <v>0.002999989587620584</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.45870230389168</v>
+        <v>7.459812</v>
       </c>
       <c r="H10">
-        <v>7.45870230389168</v>
+        <v>22.379436</v>
       </c>
       <c r="I10">
-        <v>0.0605500620261423</v>
+        <v>0.05469389629450878</v>
       </c>
       <c r="J10">
-        <v>0.0605500620261423</v>
+        <v>0.05469389629450879</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.74245590974558</v>
+        <v>100.3911106666667</v>
       </c>
       <c r="N10">
-        <v>2.74245590974558</v>
+        <v>301.173332</v>
       </c>
       <c r="O10">
-        <v>0.01263127538756484</v>
+        <v>0.459319947776371</v>
       </c>
       <c r="P10">
-        <v>0.01263127538756484</v>
+        <v>0.4593199477763709</v>
       </c>
       <c r="Q10">
-        <v>20.45516221234071</v>
+        <v>748.8988120445281</v>
       </c>
       <c r="R10">
-        <v>20.45516221234071</v>
+        <v>6740.089308400753</v>
       </c>
       <c r="S10">
-        <v>0.0007648245081863357</v>
+        <v>0.02512199758968002</v>
       </c>
       <c r="T10">
-        <v>0.0007648245081863357</v>
+        <v>0.02512199758968002</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.83004373221169</v>
+        <v>7.459812</v>
       </c>
       <c r="H11">
-        <v>6.83004373221169</v>
+        <v>22.379436</v>
       </c>
       <c r="I11">
-        <v>0.055446585046155</v>
+        <v>0.05469389629450878</v>
       </c>
       <c r="J11">
-        <v>0.055446585046155</v>
+        <v>0.05469389629450879</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>99.6512484690769</v>
+        <v>114.9276506666667</v>
       </c>
       <c r="N11">
-        <v>99.6512484690769</v>
+        <v>344.782952</v>
       </c>
       <c r="O11">
-        <v>0.4589763349173888</v>
+        <v>0.5258290515138406</v>
       </c>
       <c r="P11">
-        <v>0.4589763349173888</v>
+        <v>0.5258290515138406</v>
       </c>
       <c r="Q11">
-        <v>680.6223850132885</v>
+        <v>857.3386675750081</v>
       </c>
       <c r="R11">
-        <v>680.6223850132885</v>
+        <v>7716.048008175073</v>
       </c>
       <c r="S11">
-        <v>0.02544867038816952</v>
+        <v>0.02875963961213792</v>
       </c>
       <c r="T11">
-        <v>0.02544867038816952</v>
+        <v>0.02875963961213792</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.83004373221169</v>
+        <v>7.459812</v>
       </c>
       <c r="H12">
-        <v>6.83004373221169</v>
+        <v>22.379436</v>
       </c>
       <c r="I12">
-        <v>0.055446585046155</v>
+        <v>0.05469389629450878</v>
       </c>
       <c r="J12">
-        <v>0.055446585046155</v>
+        <v>0.05469389629450879</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>114.722606175649</v>
+        <v>0.1681513333333333</v>
       </c>
       <c r="N12">
-        <v>114.722606175649</v>
+        <v>0.504454</v>
       </c>
       <c r="O12">
-        <v>0.5283923896950464</v>
+        <v>0.0007693436314460319</v>
       </c>
       <c r="P12">
-        <v>0.5283923896950464</v>
+        <v>0.0007693436314460319</v>
       </c>
       <c r="Q12">
-        <v>783.5604172529817</v>
+        <v>1.254377334216</v>
       </c>
       <c r="R12">
-        <v>783.5604172529817</v>
+        <v>11.289396007944</v>
       </c>
       <c r="S12">
-        <v>0.02929755357296747</v>
+        <v>4.207840079315006E-05</v>
       </c>
       <c r="T12">
-        <v>0.02929755357296747</v>
+        <v>4.207840079315006E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.83004373221169</v>
+        <v>7.459812</v>
       </c>
       <c r="H13">
-        <v>6.83004373221169</v>
+        <v>22.379436</v>
       </c>
       <c r="I13">
-        <v>0.055446585046155</v>
+        <v>0.05469389629450878</v>
       </c>
       <c r="J13">
-        <v>0.055446585046155</v>
+        <v>0.05469389629450879</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.74245590974558</v>
+        <v>3.077752666666667</v>
       </c>
       <c r="N13">
-        <v>2.74245590974558</v>
+        <v>9.233257999999999</v>
       </c>
       <c r="O13">
-        <v>0.01263127538756484</v>
+        <v>0.01408165707834238</v>
       </c>
       <c r="P13">
-        <v>0.01263127538756484</v>
+        <v>0.01408165707834238</v>
       </c>
       <c r="Q13">
-        <v>18.73109379722471</v>
+        <v>22.959456275832</v>
       </c>
       <c r="R13">
-        <v>18.73109379722471</v>
+        <v>206.635106482488</v>
       </c>
       <c r="S13">
-        <v>0.0007003610850180184</v>
+        <v>0.0007701806918976936</v>
       </c>
       <c r="T13">
-        <v>0.0007003610850180184</v>
+        <v>0.0007701806918976936</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>59.1699824095798</v>
+        <v>7.099893666666667</v>
       </c>
       <c r="H14">
-        <v>59.1699824095798</v>
+        <v>21.299681</v>
       </c>
       <c r="I14">
-        <v>0.4803444297698353</v>
+        <v>0.05205504480631769</v>
       </c>
       <c r="J14">
-        <v>0.4803444297698353</v>
+        <v>0.05205504480631769</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>99.6512484690769</v>
+        <v>100.3911106666667</v>
       </c>
       <c r="N14">
-        <v>99.6512484690769</v>
+        <v>301.173332</v>
       </c>
       <c r="O14">
-        <v>0.4589763349173888</v>
+        <v>0.459319947776371</v>
       </c>
       <c r="P14">
-        <v>0.4589763349173888</v>
+        <v>0.4593199477763709</v>
       </c>
       <c r="Q14">
-        <v>5896.362619007947</v>
+        <v>712.7662108118992</v>
       </c>
       <c r="R14">
-        <v>5896.362619007947</v>
+        <v>6414.895897307092</v>
       </c>
       <c r="S14">
-        <v>0.2204667258737421</v>
+        <v>0.02390992046193449</v>
       </c>
       <c r="T14">
-        <v>0.2204667258737421</v>
+        <v>0.02390992046193449</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,114 +1340,424 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>59.1699824095798</v>
+        <v>7.099893666666667</v>
       </c>
       <c r="H15">
-        <v>59.1699824095798</v>
+        <v>21.299681</v>
       </c>
       <c r="I15">
-        <v>0.4803444297698353</v>
+        <v>0.05205504480631769</v>
       </c>
       <c r="J15">
-        <v>0.4803444297698353</v>
+        <v>0.05205504480631769</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>114.722606175649</v>
+        <v>114.9276506666667</v>
       </c>
       <c r="N15">
-        <v>114.722606175649</v>
+        <v>344.782952</v>
       </c>
       <c r="O15">
-        <v>0.5283923896950464</v>
+        <v>0.5258290515138406</v>
       </c>
       <c r="P15">
-        <v>0.5283923896950464</v>
+        <v>0.5258290515138406</v>
       </c>
       <c r="Q15">
-        <v>6788.134589394303</v>
+        <v>815.9740990931458</v>
       </c>
       <c r="R15">
-        <v>6788.134589394303</v>
+        <v>7343.766891838312</v>
       </c>
       <c r="S15">
-        <v>0.2538103411227877</v>
+        <v>0.0273720548370165</v>
       </c>
       <c r="T15">
-        <v>0.2538103411227877</v>
+        <v>0.02737205483701651</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7.099893666666667</v>
+      </c>
+      <c r="H16">
+        <v>21.299681</v>
+      </c>
+      <c r="I16">
+        <v>0.05205504480631769</v>
+      </c>
+      <c r="J16">
+        <v>0.05205504480631769</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1681513333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.504454</v>
+      </c>
+      <c r="O16">
+        <v>0.0007693436314460319</v>
+      </c>
+      <c r="P16">
+        <v>0.0007693436314460319</v>
+      </c>
+      <c r="Q16">
+        <v>1.193856586574889</v>
+      </c>
+      <c r="R16">
+        <v>10.744709279174</v>
+      </c>
+      <c r="S16">
+        <v>4.004821720637835E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.004821720637836E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.099893666666667</v>
+      </c>
+      <c r="H17">
+        <v>21.299681</v>
+      </c>
+      <c r="I17">
+        <v>0.05205504480631769</v>
+      </c>
+      <c r="J17">
+        <v>0.05205504480631769</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.077752666666667</v>
+      </c>
+      <c r="N17">
+        <v>9.233257999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.01408165707834238</v>
+      </c>
+      <c r="P17">
+        <v>0.01408165707834238</v>
+      </c>
+      <c r="Q17">
+        <v>21.85171666563311</v>
+      </c>
+      <c r="R17">
+        <v>196.665449990698</v>
+      </c>
+      <c r="S17">
+        <v>0.0007330212901603131</v>
+      </c>
+      <c r="T17">
+        <v>0.0007330212901603131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>59.1699824095798</v>
-      </c>
-      <c r="H16">
-        <v>59.1699824095798</v>
-      </c>
-      <c r="I16">
-        <v>0.4803444297698353</v>
-      </c>
-      <c r="J16">
-        <v>0.4803444297698353</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.74245590974558</v>
-      </c>
-      <c r="N16">
-        <v>2.74245590974558</v>
-      </c>
-      <c r="O16">
-        <v>0.01263127538756484</v>
-      </c>
-      <c r="P16">
-        <v>0.01263127538756484</v>
-      </c>
-      <c r="Q16">
-        <v>162.2710679386941</v>
-      </c>
-      <c r="R16">
-        <v>162.2710679386941</v>
-      </c>
-      <c r="S16">
-        <v>0.006067362773305589</v>
-      </c>
-      <c r="T16">
-        <v>0.006067362773305589</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>71.92949600000001</v>
+      </c>
+      <c r="H18">
+        <v>215.788488</v>
+      </c>
+      <c r="I18">
+        <v>0.527373128805429</v>
+      </c>
+      <c r="J18">
+        <v>0.527373128805429</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>100.3911106666667</v>
+      </c>
+      <c r="N18">
+        <v>301.173332</v>
+      </c>
+      <c r="O18">
+        <v>0.459319947776371</v>
+      </c>
+      <c r="P18">
+        <v>0.4593199477763709</v>
+      </c>
+      <c r="Q18">
+        <v>7221.081993133559</v>
+      </c>
+      <c r="R18">
+        <v>64989.73793820203</v>
+      </c>
+      <c r="S18">
+        <v>0.242232997981571</v>
+      </c>
+      <c r="T18">
+        <v>0.242232997981571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>71.92949600000001</v>
+      </c>
+      <c r="H19">
+        <v>215.788488</v>
+      </c>
+      <c r="I19">
+        <v>0.527373128805429</v>
+      </c>
+      <c r="J19">
+        <v>0.527373128805429</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>114.9276506666667</v>
+      </c>
+      <c r="N19">
+        <v>344.782952</v>
+      </c>
+      <c r="O19">
+        <v>0.5258290515138406</v>
+      </c>
+      <c r="P19">
+        <v>0.5258290515138406</v>
+      </c>
+      <c r="Q19">
+        <v>8266.6879889174</v>
+      </c>
+      <c r="R19">
+        <v>74400.19190025658</v>
+      </c>
+      <c r="S19">
+        <v>0.2773081121136452</v>
+      </c>
+      <c r="T19">
+        <v>0.2773081121136452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>71.92949600000001</v>
+      </c>
+      <c r="H20">
+        <v>215.788488</v>
+      </c>
+      <c r="I20">
+        <v>0.527373128805429</v>
+      </c>
+      <c r="J20">
+        <v>0.527373128805429</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1681513333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.504454</v>
+      </c>
+      <c r="O20">
+        <v>0.0007693436314460319</v>
+      </c>
+      <c r="P20">
+        <v>0.0007693436314460319</v>
+      </c>
+      <c r="Q20">
+        <v>12.09504065839467</v>
+      </c>
+      <c r="R20">
+        <v>108.855365925552</v>
+      </c>
+      <c r="S20">
+        <v>0.0004057311580422246</v>
+      </c>
+      <c r="T20">
+        <v>0.0004057311580422246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>71.92949600000001</v>
+      </c>
+      <c r="H21">
+        <v>215.788488</v>
+      </c>
+      <c r="I21">
+        <v>0.527373128805429</v>
+      </c>
+      <c r="J21">
+        <v>0.527373128805429</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.077752666666667</v>
+      </c>
+      <c r="N21">
+        <v>9.233257999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.01408165707834238</v>
+      </c>
+      <c r="P21">
+        <v>0.01408165707834238</v>
+      </c>
+      <c r="Q21">
+        <v>221.3811981259894</v>
+      </c>
+      <c r="R21">
+        <v>1992.430783133904</v>
+      </c>
+      <c r="S21">
+        <v>0.007426287552170536</v>
+      </c>
+      <c r="T21">
+        <v>0.007426287552170535</v>
       </c>
     </row>
   </sheetData>
